--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1569065.4985905</v>
+        <v>-1571015.724419061</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>602070.7209035945</v>
+        <v>149171.1137852642</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>186.2940722465578</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>379.9830576843257</v>
       </c>
       <c r="H2" t="n">
-        <v>54.97732823080955</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>152.2088896869522</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>48.1063726680739</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>167.5990957313722</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>153.678544441207</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,19 +950,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>150.6891296832309</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>22.287041390293</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>205.3743261851591</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>96.48367255098523</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>97.98928685342594</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229328</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491426</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>91.13431341868562</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>207.5912001051811</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>206.1273786839848</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274086</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.67232330199</v>
+        <v>12.68762643336706</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,10 +1859,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002176</v>
+        <v>73.21532344290709</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>94.16481274941241</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,13 +2293,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>5.562624396425115</v>
+        <v>9.490672649895091</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>80.4835828885717</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692825</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F28" t="n">
         <v>77.28915789329059</v>
@@ -2728,10 +2728,10 @@
         <v>98.36167833373695</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789518</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373707</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3044,10 +3044,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1431.904872659882</v>
+        <v>1550.780720353979</v>
       </c>
       <c r="C2" t="n">
-        <v>1431.904872659882</v>
+        <v>1181.818203413567</v>
       </c>
       <c r="D2" t="n">
-        <v>1073.639174053131</v>
+        <v>823.5525048068166</v>
       </c>
       <c r="E2" t="n">
-        <v>687.8509214548869</v>
+        <v>437.7642522085723</v>
       </c>
       <c r="F2" t="n">
-        <v>680.9054207056835</v>
+        <v>437.7642522085723</v>
       </c>
       <c r="G2" t="n">
-        <v>262.9416126038703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2488.374048329572</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2488.374048329572</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2234.612262967663</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1903.549375624093</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1550.780720353979</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.08070321196</v>
+        <v>1550.780720353979</v>
       </c>
       <c r="Y2" t="n">
-        <v>1620.08070321196</v>
+        <v>1550.780720353979</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252.6519168570173</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005474</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>252.6519168570173</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1173.337372245452</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="C5" t="n">
-        <v>1173.337372245452</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D5" t="n">
-        <v>1173.337372245452</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>787.5491196472076</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>376.5632148576</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>362.6398107961909</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>1563.476704221264</v>
+        <v>1565.301021494702</v>
       </c>
       <c r="X5" t="n">
-        <v>1563.476704221264</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="Y5" t="n">
-        <v>1173.337372245452</v>
+        <v>1191.835263233623</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4653,40 +4653,40 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>261.391796148808</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1146.060557799969</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C8" t="n">
-        <v>1146.060557799969</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
-        <v>787.7948591932184</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949742</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018224</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332394</v>
+        <v>2544.66214644671</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304457</v>
+        <v>2544.66214644671</v>
       </c>
       <c r="U8" t="n">
-        <v>2203.357858674734</v>
+        <v>2290.900361084802</v>
       </c>
       <c r="V8" t="n">
-        <v>1872.294971331163</v>
+        <v>1959.837473741231</v>
       </c>
       <c r="W8" t="n">
-        <v>1519.526316061049</v>
+        <v>1607.068818471117</v>
       </c>
       <c r="X8" t="n">
-        <v>1146.060557799969</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="Y8" t="n">
-        <v>1146.060557799969</v>
+        <v>1233.603060210037</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204944</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.063382757265</v>
+        <v>773.5003462121382</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414848</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435192</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050021</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>351.9727148150934</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150934</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>606.6572030209802</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>606.6572030209802</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>606.6572030209802</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U10" t="n">
-        <v>606.6572030209802</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V10" t="n">
-        <v>351.9727148150934</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>351.9727148150934</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>351.9727148150934</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>351.9727148150934</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,19 +5051,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5075,7 +5075,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5115,7 +5115,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
@@ -5124,22 +5124,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M12" t="n">
-        <v>2030.299435654558</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N12" t="n">
-        <v>2374.820091292176</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>801.6581482688464</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>801.6581482688464</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>573.668597370829</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>573.668597370829</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5300,28 +5300,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028587</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L15" t="n">
-        <v>97.21709146028587</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M15" t="n">
-        <v>629.3975440735811</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.809122337732</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O15" t="n">
-        <v>2103.272883640391</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V16" t="n">
-        <v>1187.92115703528</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W16" t="n">
-        <v>1187.92115703528</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X16" t="n">
-        <v>1187.92115703528</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="Y16" t="n">
-        <v>1187.92115703528</v>
+        <v>110.0328757364142</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,34 +5531,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M18" t="n">
-        <v>1808.163466324677</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N18" t="n">
-        <v>1808.163466324677</v>
+        <v>1667.648898594694</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2337.112659897353</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2519.756137510704</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5738,37 +5738,37 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5777,22 +5777,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047985</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L21" t="n">
-        <v>1122.004430061687</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M21" t="n">
-        <v>1122.004430061687</v>
+        <v>970.0833206816487</v>
       </c>
       <c r="N21" t="n">
-        <v>1128.069692924718</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="C22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>192.3330639344398</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,34 +5972,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L24" t="n">
-        <v>711.1141612171745</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M24" t="n">
-        <v>1479.482307609636</v>
+        <v>939.1942790685366</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.893885873787</v>
+        <v>1283.714934706155</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>1953.178696008814</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6172,25 +6172,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1378.254629089531</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1154.469213879036</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1154.469213879036</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>1154.469213879036</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>865.0520438420759</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="26">
@@ -6215,16 +6215,16 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514074</v>
@@ -6306,25 +6306,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M27" t="n">
-        <v>334.288126757867</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6367,13 +6367,13 @@
         <v>478.0475988506723</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H28" t="n">
         <v>139.9315917982973</v>
@@ -6458,49 +6458,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M30" t="n">
-        <v>629.3975440735811</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.809122337732</v>
+        <v>1501.327696442332</v>
       </c>
       <c r="O30" t="n">
-        <v>2103.272883640391</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103121</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982965</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6686,10 +6686,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,10 +6698,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6780,25 +6780,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M33" t="n">
-        <v>629.3975440735811</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N33" t="n">
-        <v>1433.809122337732</v>
+        <v>1577.284655180325</v>
       </c>
       <c r="O33" t="n">
-        <v>2103.272883640391</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
         <v>559.3441472229674</v>
@@ -6841,28 +6841,28 @@
         <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982977</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,19 +6877,19 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,25 +6947,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>661.6060969157201</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1429.974243308181</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7090,16 +7090,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7166,40 +7166,40 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7248,22 +7248,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605669</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924718</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O39" t="n">
         <v>1797.533454227377</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,19 +7421,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7564,10 +7564,10 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7640,19 +7640,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>270.0269952192064</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>883.924064976095</v>
       </c>
       <c r="M45" t="n">
-        <v>334.288126757867</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7801,10 +7801,10 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254956</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7843,10 +7843,10 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010318</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747067</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,10 +8784,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,10 +9006,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9252,10 +9252,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,10 +9486,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>137.4682402278086</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417972</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>365.0697788354063</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>370.8623401849285</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11148,19 +11148,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11397,7 +11397,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>196.4397694169228</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>33.80111233646925</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,16 +23422,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675345</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>46.01026463984323</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23.15965687994731</v>
+        <v>167.1443537485702</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338567</v>
+        <v>124.7054865406962</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>73.08200834921543</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24412,16 +24412,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>192.3581855871781</v>
+        <v>188.4301373337082</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1278190.030097763</v>
+        <v>1278190.030097764</v>
       </c>
     </row>
     <row r="3">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77466.06243016743</v>
+        <v>77466.06243016744</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.1769864283</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642828</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="E2" t="n">
         <v>78205.81194754176</v>
       </c>
       <c r="F2" t="n">
-        <v>78205.81194754178</v>
+        <v>78205.81194754176</v>
       </c>
       <c r="G2" t="n">
+        <v>78205.81194754175</v>
+      </c>
+      <c r="H2" t="n">
+        <v>78205.81194754175</v>
+      </c>
+      <c r="I2" t="n">
         <v>78205.81194754176</v>
       </c>
-      <c r="H2" t="n">
-        <v>78205.81194754181</v>
-      </c>
-      <c r="I2" t="n">
-        <v>78205.81194754181</v>
-      </c>
       <c r="J2" t="n">
-        <v>82104.17698642847</v>
+        <v>82104.17698642849</v>
       </c>
       <c r="K2" t="n">
         <v>82104.17698642834</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642843</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.1769864285</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="O2" t="n">
+        <v>82104.17698642849</v>
+      </c>
+      <c r="P2" t="n">
         <v>82104.17698642846</v>
-      </c>
-      <c r="P2" t="n">
-        <v>82104.17698642843</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.5121037125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758695</v>
@@ -26430,28 +26430,28 @@
         <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758822</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="K4" t="n">
-        <v>23206.58093189632</v>
+        <v>23206.58093189637</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189637</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.5809318964</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189631</v>
       </c>
       <c r="O4" t="n">
         <v>23206.58093189635</v>
@@ -26473,16 +26473,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26494,22 +26494,22 @@
         <v>97715.10582002539</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-707947.203214133</v>
+        <v>-708063.1560780397</v>
       </c>
       <c r="C6" t="n">
         <v>-139814.0402576003</v>
@@ -26528,40 +26528,40 @@
         <v>-139814.0402576002</v>
       </c>
       <c r="E6" t="n">
-        <v>-539729.3441686466</v>
+        <v>-539826.803294619</v>
       </c>
       <c r="F6" t="n">
-        <v>-14569.30769175073</v>
+        <v>-14666.76681772289</v>
       </c>
       <c r="G6" t="n">
-        <v>-14569.30769175074</v>
+        <v>-14666.76681772292</v>
       </c>
       <c r="H6" t="n">
-        <v>-14569.3076917507</v>
+        <v>-14666.76681772296</v>
       </c>
       <c r="I6" t="n">
-        <v>-14569.3076917507</v>
+        <v>-14666.76681772291</v>
       </c>
       <c r="J6" t="n">
-        <v>-269746.2410617987</v>
+        <v>-269746.2410617986</v>
       </c>
       <c r="K6" t="n">
-        <v>-38817.50976549339</v>
+        <v>-38817.50976549341</v>
       </c>
       <c r="L6" t="n">
-        <v>-38817.50976549331</v>
+        <v>-38817.50976549341</v>
       </c>
       <c r="M6" t="n">
-        <v>-173618.5249993303</v>
+        <v>-173618.5249993305</v>
       </c>
       <c r="N6" t="n">
-        <v>-38817.50976549333</v>
+        <v>-38817.50976549344</v>
       </c>
       <c r="O6" t="n">
-        <v>-93323.02186920581</v>
+        <v>-93323.02186920577</v>
       </c>
       <c r="P6" t="n">
-        <v>-38817.50976549331</v>
+        <v>-38817.50976549329</v>
       </c>
     </row>
   </sheetData>
@@ -26701,10 +26701,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="J2" t="n">
         <v>68.13189012964065</v>
@@ -26713,10 +26713,10 @@
         <v>68.13189012964065</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26923,19 +26923,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>268.9454445335476</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>22.2068231220193</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>119.1404484305539</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>44.54644321864674</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>170.2442283231502</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>198.5518390341821</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>124.1469212562762</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,16 +27828,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>46.7633171386689</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481164</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>77.9320402579863</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>153.2348806548634</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>55.53087856147221</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>44.54644321864694</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.602510716717613e-12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31142,25 +31142,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392672</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31373,7 +31373,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>86.43447689993462</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958058</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554471</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633804</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727385</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473558</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141115</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.84709008118892</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396482</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>160.6967431133295</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619157</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078615</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644447</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813581</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302245</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175851</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383806</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,37 +31838,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>425.8974584957645</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>207.3204600535047</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -32084,28 +32084,28 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>213.9849829127208</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>411.8452132761049</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,37 +32312,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>201.5176914958845</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>24.03312854020655</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,37 +32549,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>31.20105213445669</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,37 +32786,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>91.84465193776708</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>183.8504064050096</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33026,7 +33026,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -33035,7 +33035,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>278.2239161437387</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33047,13 +33047,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33266,31 +33266,31 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>213.9849829127208</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>47.93166030412431</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33506,28 +33506,28 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>213.9849829127208</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,25 +33646,25 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,37 +33734,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>337.8039389768536</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,16 +33910,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,22 +33971,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>327.3263154426292</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>341.0678223458549</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,34 +34120,34 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34208,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>312.0401982246465</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,10 +34375,10 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927192</v>
       </c>
       <c r="O44" t="n">
         <v>562.4526372540886</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34448,19 +34448,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>47.93166030412431</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>341.0678223458549</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770696</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>392.9827086369145</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.8709020871396</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873155</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>749.4684883237461</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>555.3211223137249</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>537.5560127407024</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>759.8458755363251</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>525.0887213238661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>94.12864219003413</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>354.7720819624383</v>
       </c>
       <c r="N21" t="n">
-        <v>6.126528144475264</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>343.1107267700522</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>368.3387676306165</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,19 +36674,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197789</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>626.224578403959</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36695,7 +36695,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36765,7 +36765,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
         <v>246.5154907414414</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>537.5560127407024</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>299.1977351364094</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -36999,10 +36999,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
         <v>246.5154907414414</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>537.5560127407024</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>222.4735343909618</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>570.0899045004386</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>228.7283062629101</v>
+        <v>650.8973452706108</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
@@ -37643,7 +37643,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,10 +37710,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,19 +37780,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>635.6112280526281</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,16 +38017,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,19 +38096,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>174.5554583423439</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>239.4656922197789</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38117,7 +38117,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,10 +38184,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
